--- a/doc/todo.xlsx
+++ b/doc/todo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Priority</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Add ability to see Blob URL and other data</t>
+  </si>
+  <si>
+    <t>Add application icon</t>
+  </si>
+  <si>
+    <t>Delete downloaded file after download canceled</t>
   </si>
 </sst>
 </file>
@@ -416,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -571,6 +577,16 @@
     <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/doc/todo.xlsx
+++ b/doc/todo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="15300" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="15300" windowHeight="6012"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Priority</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Automatically update account list after account has been added</t>
   </si>
   <si>
-    <t>Overwrite protection when download</t>
-  </si>
-  <si>
     <t>Support virtual folders inside blobs</t>
   </si>
   <si>
@@ -91,6 +88,33 @@
   </si>
   <si>
     <t>Delete downloaded file after download canceled</t>
+  </si>
+  <si>
+    <t>Protect files from overwriting when downloaded</t>
+  </si>
+  <si>
+    <t>Sort blobs by different fields</t>
+  </si>
+  <si>
+    <t>Implement remove download</t>
+  </si>
+  <si>
+    <t>Show error when container list download fails</t>
+  </si>
+  <si>
+    <t>Show error when blob list download files</t>
+  </si>
+  <si>
+    <t>Older downloads should shift to the right</t>
+  </si>
+  <si>
+    <t>Make sure one can start more than 2 downloads</t>
+  </si>
+  <si>
+    <t>Open download folder in explorer</t>
+  </si>
+  <si>
+    <t>Bug: cancelled download changes to "starting" when new download is started</t>
   </si>
 </sst>
 </file>
@@ -422,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A2" sqref="A2:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -443,10 +467,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -454,12 +478,12 @@
         <v>10000</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>30</v>
+        <v>10000</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -467,7 +491,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>40</v>
+        <v>10000</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -475,42 +499,42 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>60</v>
+        <v>10000</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>70</v>
+        <v>10000</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>80</v>
+        <v>10000</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -531,67 +555,107 @@
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B19">
-    <sortCondition ref="A3"/>
+  <sortState ref="A2:B32">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/todo.xlsx
+++ b/doc/todo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Priority</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>Bug: cancelled download changes to "starting" when new download is started</t>
+  </si>
+  <si>
+    <t>Change folder list background to azure</t>
+  </si>
+  <si>
+    <t>Fast multi-threaded download</t>
   </si>
 </sst>
 </file>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D32"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -467,42 +473,42 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>10000</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>10000</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>10000</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -510,7 +516,7 @@
         <v>10000</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -518,7 +524,7 @@
         <v>10000</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -526,7 +532,7 @@
         <v>10000</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -534,7 +540,7 @@
         <v>10000</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -542,7 +548,7 @@
         <v>10000</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -550,107 +556,132 @@
         <v>10000</v>
       </c>
       <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>10000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>10000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>10000</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>10000</v>
+      </c>
+      <c r="B16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="B13" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>10000</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="B14" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="B15" t="s">
+    <row r="20" spans="1:2">
+      <c r="B20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+    <row r="24" spans="1:2">
+      <c r="B24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+    <row r="26" spans="1:2">
+      <c r="B26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+    <row r="27" spans="1:2">
+      <c r="B27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
+    <row r="28" spans="1:2">
+      <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
+    <row r="29" spans="1:2">
+      <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
+    <row r="31" spans="1:2">
+      <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
+    <row r="32" spans="1:2">
+      <c r="B32" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
-        <v>32</v>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/doc/todo.xlsx
+++ b/doc/todo.xlsx
@@ -455,7 +455,7 @@
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -473,7 +473,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>30</v>
+        <v>10000</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>

--- a/doc/todo.xlsx
+++ b/doc/todo.xlsx
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -473,18 +473,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>10000</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -492,23 +492,23 @@
         <v>10000</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>40</v>
+        <v>10000</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>60</v>
+        <v>10000</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -685,8 +685,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B32">
-    <sortCondition ref="A2"/>
+  <sortState ref="A2:B34">
+    <sortCondition ref="A6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/todo.xlsx
+++ b/doc/todo.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ivan\dev\proj\Azure\AquaExplorer\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="72" windowWidth="15300" windowHeight="6012"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Priority</t>
   </si>
@@ -105,9 +110,6 @@
     <t>Show error when blob list download files</t>
   </si>
   <si>
-    <t>Older downloads should shift to the right</t>
-  </si>
-  <si>
     <t>Make sure one can start more than 2 downloads</t>
   </si>
   <si>
@@ -121,13 +123,28 @@
   </si>
   <si>
     <t>Fast multi-threaded download</t>
+  </si>
+  <si>
+    <t>Show downloads that don't fit the download bar</t>
+  </si>
+  <si>
+    <t>Support for very large number of blobs in container</t>
+  </si>
+  <si>
+    <t>Search blobs/containers</t>
+  </si>
+  <si>
+    <t>Show downloaded item in explorer</t>
+  </si>
+  <si>
+    <t>Copy downloaded item location to clipboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +181,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -210,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,9 +267,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,6 +302,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,19 +478,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="43.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,246 +498,281 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>60</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>10000</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10000</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>10000</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>10000</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10000</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10000</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10000</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10000</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10000</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10000</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10000</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10000</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>10000</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10000</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10000</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10000</v>
+      </c>
+      <c r="B22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>10000</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>10000</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>10000</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>10000</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>10000</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>10000</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>10000</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>10000</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>10000</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>10000</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>10000</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>10000</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="B18" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="B20" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="B21" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="B24" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="B28" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="B29" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="B30" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:B34">
-    <sortCondition ref="A6"/>
+  <sortState ref="A2:B38">
+    <sortCondition ref="A20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
